--- a/data/results/personnalResults.xlsx
+++ b/data/results/personnalResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clementboloch/Documents/OpenClassrooms/Projet 7/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFBA29-069D-634B-8240-8DC026F78A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508573E7-32A8-9546-865A-EFDEAA6AE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="960" windowWidth="27640" windowHeight="15960" xr2:uid="{AFB21DA5-0909-8741-BD6D-DA6C0897A2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
   <si>
     <t>brutforce</t>
   </si>
@@ -131,10 +132,16 @@
     <t>Evolution</t>
   </si>
   <si>
-    <t>Brutforce</t>
-  </si>
-  <si>
-    <t>Potential</t>
+    <t>Nb actions</t>
+  </si>
+  <si>
+    <t>Potentiel</t>
+  </si>
+  <si>
+    <t>Dynamique</t>
+  </si>
+  <si>
+    <t>Force brute</t>
   </si>
 </sst>
 </file>
@@ -216,37 +223,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -261,7 +238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Potential</c:v>
+                  <c:v>Potentiel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -496,7 +473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamic</c:v>
+                  <c:v>Dynamique</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -731,7 +708,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brutforce</c:v>
+                  <c:v>Force brute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2018,7 +1995,7 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,10 +2464,10 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -2849,4 +2826,412 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1071E5A9-ACC2-B041-A6A2-A8C895F25C25}">
+  <dimension ref="B3:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1442.3871999999999</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>98.68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>77.915999999999997</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>98.68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.2228</v>
+      </c>
+      <c r="E8">
+        <v>254</v>
+      </c>
+      <c r="F8">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4.5042999999999997</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>99.08</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>99.08</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.2339</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>98.68</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0.2409</v>
+      </c>
+      <c r="E12">
+        <v>254</v>
+      </c>
+      <c r="F12">
+        <v>56.96</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>97.48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>83.256799999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.48999999999995902</v>
+      </c>
+      <c r="F17">
+        <v>198.392404</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>5.4429999999999996</v>
+      </c>
+      <c r="E18">
+        <v>29.0399999999999</v>
+      </c>
+      <c r="F18">
+        <v>187.19794899999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E19">
+        <v>402.61</v>
+      </c>
+      <c r="F19">
+        <v>38.918061999999999</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.0000000000066799E-2</v>
+      </c>
+      <c r="F20">
+        <v>198.50780499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
+      </c>
+      <c r="F21">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>160.71700000000001</v>
+      </c>
+      <c r="E25">
+        <v>7.9999999999930793E-2</v>
+      </c>
+      <c r="F25">
+        <v>197.91604799999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>5.1035000000000004</v>
+      </c>
+      <c r="E26">
+        <v>1.4899999999998901</v>
+      </c>
+      <c r="F26">
+        <v>197.33241199999901</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E27">
+        <v>341.53</v>
+      </c>
+      <c r="F27">
+        <v>63.277550999999903</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.00000000000677E-2</v>
+      </c>
+      <c r="F28">
+        <v>197.76834500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>10.76</v>
+      </c>
+      <c r="F29">
+        <v>193.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>